--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hras-Agtr1a.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.016372109847</v>
+        <v>12.402677</v>
       </c>
       <c r="H2">
-        <v>12.016372109847</v>
+        <v>37.20803100000001</v>
       </c>
       <c r="I2">
-        <v>0.5173488874472788</v>
+        <v>0.4952943482020729</v>
       </c>
       <c r="J2">
-        <v>0.5173488874472788</v>
+        <v>0.495294348202073</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.02260495709317</v>
+        <v>7.720721333333333</v>
       </c>
       <c r="N2">
-        <v>4.02260495709317</v>
+        <v>23.162164</v>
       </c>
       <c r="O2">
-        <v>0.1430775671272894</v>
+        <v>0.1914196631940246</v>
       </c>
       <c r="P2">
-        <v>0.1430775671272894</v>
+        <v>0.1914196631940246</v>
       </c>
       <c r="Q2">
-        <v>48.33711801534666</v>
+        <v>95.75761290434268</v>
       </c>
       <c r="R2">
-        <v>48.33711801534666</v>
+        <v>861.8185161390841</v>
       </c>
       <c r="S2">
-        <v>0.0740210201719665</v>
+        <v>0.09480907731474476</v>
       </c>
       <c r="T2">
-        <v>0.0740210201719665</v>
+        <v>0.09480907731474476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.016372109847</v>
+        <v>12.402677</v>
       </c>
       <c r="H3">
-        <v>12.016372109847</v>
+        <v>37.20803100000001</v>
       </c>
       <c r="I3">
-        <v>0.5173488874472788</v>
+        <v>0.4952943482020729</v>
       </c>
       <c r="J3">
-        <v>0.5173488874472788</v>
+        <v>0.495294348202073</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.9158756921238</v>
+        <v>18.940215</v>
       </c>
       <c r="N3">
-        <v>18.9158756921238</v>
+        <v>56.820645</v>
       </c>
       <c r="O3">
-        <v>0.6728071742016249</v>
+        <v>0.4695843069053151</v>
       </c>
       <c r="P3">
-        <v>0.6728071742016249</v>
+        <v>0.4695843069053151</v>
       </c>
       <c r="Q3">
-        <v>227.3002011001693</v>
+        <v>234.909368955555</v>
       </c>
       <c r="R3">
-        <v>227.3002011001693</v>
+        <v>2114.184320599995</v>
       </c>
       <c r="S3">
-        <v>0.3480760430397581</v>
+        <v>0.2325824532145902</v>
       </c>
       <c r="T3">
-        <v>0.3480760430397581</v>
+        <v>0.2325824532145902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.016372109847</v>
+        <v>12.402677</v>
       </c>
       <c r="H4">
-        <v>12.016372109847</v>
+        <v>37.20803100000001</v>
       </c>
       <c r="I4">
-        <v>0.5173488874472788</v>
+        <v>0.4952943482020729</v>
       </c>
       <c r="J4">
-        <v>0.5173488874472788</v>
+        <v>0.495294348202073</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.17637367671973</v>
+        <v>13.673067</v>
       </c>
       <c r="N4">
-        <v>5.17637367671973</v>
+        <v>41.019201</v>
       </c>
       <c r="O4">
-        <v>0.1841152586710857</v>
+        <v>0.3389960299006603</v>
       </c>
       <c r="P4">
-        <v>0.1841152586710857</v>
+        <v>0.3389960299006603</v>
       </c>
       <c r="Q4">
-        <v>62.20123227908113</v>
+        <v>169.582633600359</v>
       </c>
       <c r="R4">
-        <v>62.20123227908113</v>
+        <v>1526.243702403231</v>
       </c>
       <c r="S4">
-        <v>0.09525182423555416</v>
+        <v>0.167902817672738</v>
       </c>
       <c r="T4">
-        <v>0.09525182423555416</v>
+        <v>0.167902817672738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.07813755584659</v>
+        <v>5.161818666666666</v>
       </c>
       <c r="H5">
-        <v>5.07813755584659</v>
+        <v>15.485456</v>
       </c>
       <c r="I5">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="J5">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.02260495709317</v>
+        <v>7.720721333333333</v>
       </c>
       <c r="N5">
-        <v>4.02260495709317</v>
+        <v>23.162164</v>
       </c>
       <c r="O5">
-        <v>0.1430775671272894</v>
+        <v>0.1914196631940246</v>
       </c>
       <c r="P5">
-        <v>0.1430775671272894</v>
+        <v>0.1914196631940246</v>
       </c>
       <c r="Q5">
-        <v>20.42734130494949</v>
+        <v>39.85296349853155</v>
       </c>
       <c r="R5">
-        <v>20.42734130494949</v>
+        <v>358.676671486784</v>
       </c>
       <c r="S5">
-        <v>0.03128139833064201</v>
+        <v>0.03945819640813774</v>
       </c>
       <c r="T5">
-        <v>0.03128139833064201</v>
+        <v>0.03945819640813775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.07813755584659</v>
+        <v>5.161818666666666</v>
       </c>
       <c r="H6">
-        <v>5.07813755584659</v>
+        <v>15.485456</v>
       </c>
       <c r="I6">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="J6">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.9158756921238</v>
+        <v>18.940215</v>
       </c>
       <c r="N6">
-        <v>18.9158756921238</v>
+        <v>56.820645</v>
       </c>
       <c r="O6">
-        <v>0.6728071742016249</v>
+        <v>0.4695843069053151</v>
       </c>
       <c r="P6">
-        <v>0.6728071742016249</v>
+        <v>0.4695843069053151</v>
       </c>
       <c r="Q6">
-        <v>96.05741875389948</v>
+        <v>97.76595533767998</v>
       </c>
       <c r="R6">
-        <v>96.05741875389948</v>
+        <v>879.89359803912</v>
       </c>
       <c r="S6">
-        <v>0.1470974775325243</v>
+        <v>0.09679752593268355</v>
       </c>
       <c r="T6">
-        <v>0.1470974775325243</v>
+        <v>0.09679752593268358</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.07813755584659</v>
+        <v>5.161818666666666</v>
       </c>
       <c r="H7">
-        <v>5.07813755584659</v>
+        <v>15.485456</v>
       </c>
       <c r="I7">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="J7">
-        <v>0.2186324450346044</v>
+        <v>0.2061344991927113</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.17637367671973</v>
+        <v>13.673067</v>
       </c>
       <c r="N7">
-        <v>5.17637367671973</v>
+        <v>41.019201</v>
       </c>
       <c r="O7">
-        <v>0.1841152586710857</v>
+        <v>0.3389960299006603</v>
       </c>
       <c r="P7">
-        <v>0.1841152586710857</v>
+        <v>0.3389960299006603</v>
       </c>
       <c r="Q7">
-        <v>26.28633757084616</v>
+        <v>70.57789247118399</v>
       </c>
       <c r="R7">
-        <v>26.28633757084616</v>
+        <v>635.2010322406559</v>
       </c>
       <c r="S7">
-        <v>0.04025356917143812</v>
+        <v>0.06987877685188999</v>
       </c>
       <c r="T7">
-        <v>0.04025356917143812</v>
+        <v>0.06987877685189001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.68124702694606</v>
+        <v>3.073119</v>
       </c>
       <c r="H8">
-        <v>2.68124702694606</v>
+        <v>9.219357</v>
       </c>
       <c r="I8">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="J8">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.02260495709317</v>
+        <v>7.720721333333333</v>
       </c>
       <c r="N8">
-        <v>4.02260495709317</v>
+        <v>23.162164</v>
       </c>
       <c r="O8">
-        <v>0.1430775671272894</v>
+        <v>0.1914196631940246</v>
       </c>
       <c r="P8">
-        <v>0.1430775671272894</v>
+        <v>0.1914196631940246</v>
       </c>
       <c r="Q8">
-        <v>10.78559758178455</v>
+        <v>23.726695423172</v>
       </c>
       <c r="R8">
-        <v>10.78559758178455</v>
+        <v>213.540258808548</v>
       </c>
       <c r="S8">
-        <v>0.01651651916679256</v>
+        <v>0.02349166852191757</v>
       </c>
       <c r="T8">
-        <v>0.01651651916679256</v>
+        <v>0.02349166852191757</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.68124702694606</v>
+        <v>3.073119</v>
       </c>
       <c r="H9">
-        <v>2.68124702694606</v>
+        <v>9.219357</v>
       </c>
       <c r="I9">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="J9">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.9158756921238</v>
+        <v>18.940215</v>
       </c>
       <c r="N9">
-        <v>18.9158756921238</v>
+        <v>56.820645</v>
       </c>
       <c r="O9">
-        <v>0.6728071742016249</v>
+        <v>0.4695843069053151</v>
       </c>
       <c r="P9">
-        <v>0.6728071742016249</v>
+        <v>0.4695843069053151</v>
       </c>
       <c r="Q9">
-        <v>50.71813546158819</v>
+        <v>58.205534580585</v>
       </c>
       <c r="R9">
-        <v>50.71813546158819</v>
+        <v>523.8498112252651</v>
       </c>
       <c r="S9">
-        <v>0.07766718998213376</v>
+        <v>0.05762897445772135</v>
       </c>
       <c r="T9">
-        <v>0.07766718998213376</v>
+        <v>0.05762897445772136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.68124702694606</v>
+        <v>3.073119</v>
       </c>
       <c r="H10">
-        <v>2.68124702694606</v>
+        <v>9.219357</v>
       </c>
       <c r="I10">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="J10">
-        <v>0.1154375175536679</v>
+        <v>0.1227233823836907</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.17637367671973</v>
+        <v>13.673067</v>
       </c>
       <c r="N10">
-        <v>5.17637367671973</v>
+        <v>41.019201</v>
       </c>
       <c r="O10">
-        <v>0.1841152586710857</v>
+        <v>0.3389960299006603</v>
       </c>
       <c r="P10">
-        <v>0.1841152586710857</v>
+        <v>0.3389960299006603</v>
       </c>
       <c r="Q10">
-        <v>13.87913653106662</v>
+        <v>42.01896198597299</v>
       </c>
       <c r="R10">
-        <v>13.87913653106662</v>
+        <v>378.170657873757</v>
       </c>
       <c r="S10">
-        <v>0.02125380840474156</v>
+        <v>0.04160273940405178</v>
       </c>
       <c r="T10">
-        <v>0.02125380840474156</v>
+        <v>0.04160273940405179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.45106837919651</v>
+        <v>4.403408</v>
       </c>
       <c r="H11">
-        <v>3.45106837919651</v>
+        <v>13.210224</v>
       </c>
       <c r="I11">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="J11">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.02260495709317</v>
+        <v>7.720721333333333</v>
       </c>
       <c r="N11">
-        <v>4.02260495709317</v>
+        <v>23.162164</v>
       </c>
       <c r="O11">
-        <v>0.1430775671272894</v>
+        <v>0.1914196631940246</v>
       </c>
       <c r="P11">
-        <v>0.1430775671272894</v>
+        <v>0.1914196631940246</v>
       </c>
       <c r="Q11">
-        <v>13.88228476942337</v>
+        <v>33.99748608497066</v>
       </c>
       <c r="R11">
-        <v>13.88228476942337</v>
+        <v>305.9773747647359</v>
       </c>
       <c r="S11">
-        <v>0.02125862945788829</v>
+        <v>0.03366072094922455</v>
       </c>
       <c r="T11">
-        <v>0.02125862945788829</v>
+        <v>0.03366072094922455</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.45106837919651</v>
+        <v>4.403408</v>
       </c>
       <c r="H12">
-        <v>3.45106837919651</v>
+        <v>13.210224</v>
       </c>
       <c r="I12">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="J12">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.9158756921238</v>
+        <v>18.940215</v>
       </c>
       <c r="N12">
-        <v>18.9158756921238</v>
+        <v>56.820645</v>
       </c>
       <c r="O12">
-        <v>0.6728071742016249</v>
+        <v>0.4695843069053151</v>
       </c>
       <c r="P12">
-        <v>0.6728071742016249</v>
+        <v>0.4695843069053151</v>
       </c>
       <c r="Q12">
-        <v>65.27998046590035</v>
+        <v>83.40149425271998</v>
       </c>
       <c r="R12">
-        <v>65.27998046590035</v>
+        <v>750.61344827448</v>
       </c>
       <c r="S12">
-        <v>0.09996646364720874</v>
+        <v>0.08257535330031993</v>
       </c>
       <c r="T12">
-        <v>0.09996646364720874</v>
+        <v>0.08257535330031994</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.45106837919651</v>
+        <v>4.403408</v>
       </c>
       <c r="H13">
-        <v>3.45106837919651</v>
+        <v>13.210224</v>
       </c>
       <c r="I13">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="J13">
-        <v>0.1485811499644489</v>
+        <v>0.175847770221525</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.17637367671973</v>
+        <v>13.673067</v>
       </c>
       <c r="N13">
-        <v>5.17637367671973</v>
+        <v>41.019201</v>
       </c>
       <c r="O13">
-        <v>0.1841152586710857</v>
+        <v>0.3389960299006603</v>
       </c>
       <c r="P13">
-        <v>0.1841152586710857</v>
+        <v>0.3389960299006603</v>
       </c>
       <c r="Q13">
-        <v>17.86401951463264</v>
+        <v>60.20809261233599</v>
       </c>
       <c r="R13">
-        <v>17.86401951463264</v>
+        <v>541.8728335110239</v>
       </c>
       <c r="S13">
-        <v>0.02735605685935189</v>
+        <v>0.05961169597198053</v>
       </c>
       <c r="T13">
-        <v>0.02735605685935189</v>
+        <v>0.05961169597198054</v>
       </c>
     </row>
   </sheetData>
